--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thispc\Documents\Unified Functional Testing\man\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thispc\branchgit\TestUFT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F22D1-0F57-46AA-986C-EDC42EB69E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC867EB-5ACB-4C7A-9F49-9BDAD48451A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AB8D5DCD-2C58-4965-A28A-88F4E43E30BF}"/>
+    <workbookView xWindow="1080" yWindow="1770" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{AB8D5DCD-2C58-4965-A28A-88F4E43E30BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC1" sheetId="1" r:id="rId1"/>
-    <sheet name="TC2" sheetId="2" r:id="rId2"/>
-    <sheet name="returnData" sheetId="3" r:id="rId3"/>
+    <sheet name="TC1" sheetId="6" r:id="rId1"/>
+    <sheet name="TC3" sheetId="4" r:id="rId2"/>
+    <sheet name="TC2" sheetId="7" r:id="rId3"/>
+    <sheet name="orderData" sheetId="5" r:id="rId4"/>
+    <sheet name="returnData" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -84,6 +86,21 @@
   </si>
   <si>
     <t>Flight</t>
+  </si>
+  <si>
+    <t>PassengerName</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>14697 SR</t>
+  </si>
+  <si>
+    <t>OrderID</t>
   </si>
 </sst>
 </file>
@@ -99,13 +116,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +141,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -183,20 +212,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -206,20 +230,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,19 +556,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E125324B-4F2C-445A-A5ED-D40D831F1773}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F2E50A-44CA-40F7-A4ED-36920895784F}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,8 +613,8 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>43933</v>
+      <c r="F2" s="1">
+        <v>43936</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -603,507 +623,225 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F3" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4FBC4-F428-4C1C-9B48-D644ADD4CF1D}">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91BD582-7BDB-427D-986E-672FAAC2A5F1}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="K1" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11">
-        <v>43934</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8">
+        <v>43936</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="11">
-        <v>43934</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11">
-        <v>43935</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11">
-        <v>43936</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="11">
-        <v>43937</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="11">
-        <v>43938</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="11">
-        <v>43939</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="J2" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AFA766-F19D-48E0-8074-8071D95AC7A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE19577-338D-4437-B639-7FD3258D971B}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="B1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8">
+        <v>43936</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4514F-AFA1-40FD-8541-9E1237019B11}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AFA766-F19D-48E0-8074-8071D95AC7A0}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thispc\branchgit\TestUFT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC867EB-5ACB-4C7A-9F49-9BDAD48451A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23B9B37-8052-4371-99B8-6983E38A3F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1770" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{AB8D5DCD-2C58-4965-A28A-88F4E43E30BF}"/>
+    <workbookView xWindow="1080" yWindow="1770" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{AB8D5DCD-2C58-4965-A28A-88F4E43E30BF}"/>
   </bookViews>
   <sheets>
     <sheet name="TC1" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>OrderID</t>
+  </si>
+  <si>
+    <t>Order 130 completed</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91BD582-7BDB-427D-986E-672FAAC2A5F1}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -789,12 +792,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4514F-AFA1-40FD-8541-9E1237019B11}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1">
+        <v>43936</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -803,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AFA766-F19D-48E0-8074-8071D95AC7A0}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thispc\branchgit\TestUFT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23B9B37-8052-4371-99B8-6983E38A3F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741630A7-C6B0-44F6-9D67-3952B4F64711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1770" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{AB8D5DCD-2C58-4965-A28A-88F4E43E30BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{AB8D5DCD-2C58-4965-A28A-88F4E43E30BF}"/>
   </bookViews>
   <sheets>
     <sheet name="TC1" sheetId="6" r:id="rId1"/>
@@ -840,12 +840,13 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="A1:J4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -865,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
